--- a/code/content/TOPIC_XLSX/요일_0.xlsx
+++ b/code/content/TOPIC_XLSX/요일_0.xlsx
@@ -390,10 +390,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>222</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,15 +401,15 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>190</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -425,23 +425,23 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>162</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
